--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H2">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I2">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J2">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09323999999999999</v>
+        <v>0.09324</v>
       </c>
       <c r="N2">
         <v>0.27972</v>
       </c>
       <c r="O2">
-        <v>0.0337812745800981</v>
+        <v>0.06574412111659711</v>
       </c>
       <c r="P2">
-        <v>0.0337812745800981</v>
+        <v>0.06574412111659712</v>
       </c>
       <c r="Q2">
-        <v>0.3956754395999999</v>
+        <v>0.3861211367999999</v>
       </c>
       <c r="R2">
-        <v>3.561078956399999</v>
+        <v>3.4750902312</v>
       </c>
       <c r="S2">
-        <v>0.008341429246745942</v>
+        <v>0.01663478333987778</v>
       </c>
       <c r="T2">
-        <v>0.008341429246745944</v>
+        <v>0.01663478333987778</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H3">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I3">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J3">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3734420000000001</v>
+        <v>0.126335</v>
       </c>
       <c r="N3">
-        <v>1.120326</v>
+        <v>0.379005</v>
       </c>
       <c r="O3">
-        <v>0.1352997291049013</v>
+        <v>0.08907961755968785</v>
       </c>
       <c r="P3">
-        <v>0.1352997291049013</v>
+        <v>0.08907961755968785</v>
       </c>
       <c r="Q3">
-        <v>1.584747184846667</v>
+        <v>0.5231726063666666</v>
       </c>
       <c r="R3">
-        <v>14.26272466362</v>
+        <v>4.708553457299999</v>
       </c>
       <c r="S3">
-        <v>0.03340883763152402</v>
+        <v>0.0225392037027398</v>
       </c>
       <c r="T3">
-        <v>0.03340883763152402</v>
+        <v>0.0225392037027398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.243623333333333</v>
+        <v>4.141153333333333</v>
       </c>
       <c r="H4">
-        <v>12.73087</v>
+        <v>12.42346</v>
       </c>
       <c r="I4">
-        <v>0.2469246453968972</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="J4">
-        <v>0.2469246453968973</v>
+        <v>0.2530231305454066</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.293427</v>
+        <v>1.198650666666667</v>
       </c>
       <c r="N4">
-        <v>6.880281</v>
+        <v>3.595952</v>
       </c>
       <c r="O4">
-        <v>0.8309189963150005</v>
+        <v>0.845176261323715</v>
       </c>
       <c r="P4">
-        <v>0.8309189963150007</v>
+        <v>0.8451762613237152</v>
       </c>
       <c r="Q4">
-        <v>9.732440330496665</v>
+        <v>4.963796203768887</v>
       </c>
       <c r="R4">
-        <v>87.59196297446999</v>
+        <v>44.67416583391999</v>
       </c>
       <c r="S4">
-        <v>0.2051743785186273</v>
+        <v>0.2138491435027891</v>
       </c>
       <c r="T4">
-        <v>0.2051743785186273</v>
+        <v>0.2138491435027891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>17.596475</v>
       </c>
       <c r="I5">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J5">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09323999999999999</v>
+        <v>0.09324</v>
       </c>
       <c r="N5">
         <v>0.27972</v>
       </c>
       <c r="O5">
-        <v>0.0337812745800981</v>
+        <v>0.06574412111659711</v>
       </c>
       <c r="P5">
-        <v>0.0337812745800981</v>
+        <v>0.06574412111659712</v>
       </c>
       <c r="Q5">
-        <v>0.546898443</v>
+        <v>0.5468984430000001</v>
       </c>
       <c r="R5">
-        <v>4.922085987</v>
+        <v>4.922085987000001</v>
       </c>
       <c r="S5">
-        <v>0.01152943602476766</v>
+        <v>0.02356135482148902</v>
       </c>
       <c r="T5">
-        <v>0.01152943602476766</v>
+        <v>0.02356135482148902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>17.596475</v>
       </c>
       <c r="I6">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J6">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3734420000000001</v>
+        <v>0.126335</v>
       </c>
       <c r="N6">
-        <v>1.120326</v>
+        <v>0.379005</v>
       </c>
       <c r="O6">
-        <v>0.1352997291049013</v>
+        <v>0.08907961755968785</v>
       </c>
       <c r="P6">
-        <v>0.1352997291049013</v>
+        <v>0.08907961755968785</v>
       </c>
       <c r="Q6">
-        <v>2.190420938983334</v>
+        <v>0.7410168897083335</v>
       </c>
       <c r="R6">
-        <v>19.71378845085</v>
+        <v>6.669152007375001</v>
       </c>
       <c r="S6">
-        <v>0.04617734500172978</v>
+        <v>0.0319243217650452</v>
       </c>
       <c r="T6">
-        <v>0.04617734500172978</v>
+        <v>0.03192432176504519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>17.596475</v>
       </c>
       <c r="I7">
-        <v>0.3412966552647516</v>
+        <v>0.3583796455306321</v>
       </c>
       <c r="J7">
-        <v>0.3412966552647516</v>
+        <v>0.358379645530632</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.293427</v>
+        <v>1.198650666666667</v>
       </c>
       <c r="N7">
-        <v>6.880281</v>
+        <v>3.595952</v>
       </c>
       <c r="O7">
-        <v>0.8309189963150005</v>
+        <v>0.845176261323715</v>
       </c>
       <c r="P7">
-        <v>0.8309189963150007</v>
+        <v>0.8451762613237152</v>
       </c>
       <c r="Q7">
-        <v>13.45207695660833</v>
+        <v>7.030675496577778</v>
       </c>
       <c r="R7">
-        <v>121.068692609475</v>
+        <v>63.2760794692</v>
       </c>
       <c r="S7">
-        <v>0.2835898742382542</v>
+        <v>0.3028939689440979</v>
       </c>
       <c r="T7">
-        <v>0.2835898742382542</v>
+        <v>0.3028939689440979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H8">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I8">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J8">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09323999999999999</v>
+        <v>0.09324</v>
       </c>
       <c r="N8">
         <v>0.27972</v>
       </c>
       <c r="O8">
-        <v>0.0337812745800981</v>
+        <v>0.06574412111659711</v>
       </c>
       <c r="P8">
-        <v>0.0337812745800981</v>
+        <v>0.06574412111659712</v>
       </c>
       <c r="Q8">
-        <v>0.08892087455999999</v>
+        <v>0.04359818484000001</v>
       </c>
       <c r="R8">
-        <v>0.80028787104</v>
+        <v>0.39238366356</v>
       </c>
       <c r="S8">
-        <v>0.001874584847750078</v>
+        <v>0.001878287122108525</v>
       </c>
       <c r="T8">
-        <v>0.001874584847750078</v>
+        <v>0.001878287122108525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H9">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I9">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J9">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3734420000000001</v>
+        <v>0.126335</v>
       </c>
       <c r="N9">
-        <v>1.120326</v>
+        <v>0.379005</v>
       </c>
       <c r="O9">
-        <v>0.1352997291049013</v>
+        <v>0.08907961755968785</v>
       </c>
       <c r="P9">
-        <v>0.1352997291049013</v>
+        <v>0.08907961755968785</v>
       </c>
       <c r="Q9">
-        <v>0.3561431707146667</v>
+        <v>0.059073108985</v>
       </c>
       <c r="R9">
-        <v>3.205288536432001</v>
+        <v>0.531657980865</v>
       </c>
       <c r="S9">
-        <v>0.0075080299733321</v>
+        <v>0.002544974298279499</v>
       </c>
       <c r="T9">
-        <v>0.0075080299733321</v>
+        <v>0.002544974298279499</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9536773333333334</v>
+        <v>0.467591</v>
       </c>
       <c r="H10">
-        <v>2.861032</v>
+        <v>1.402773</v>
       </c>
       <c r="I10">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840602</v>
       </c>
       <c r="J10">
-        <v>0.05549183300663472</v>
+        <v>0.02856965900840601</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.293427</v>
+        <v>1.198650666666667</v>
       </c>
       <c r="N10">
-        <v>6.880281</v>
+        <v>3.595952</v>
       </c>
       <c r="O10">
-        <v>0.8309189963150005</v>
+        <v>0.845176261323715</v>
       </c>
       <c r="P10">
-        <v>0.8309189963150007</v>
+        <v>0.8451762613237152</v>
       </c>
       <c r="Q10">
-        <v>2.187189345554667</v>
+        <v>0.5604782638773333</v>
       </c>
       <c r="R10">
-        <v>19.684704109992</v>
+        <v>5.044304374896</v>
       </c>
       <c r="S10">
-        <v>0.04610921818555255</v>
+        <v>0.024146397588018</v>
       </c>
       <c r="T10">
-        <v>0.04610921818555255</v>
+        <v>0.02414639758801799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H11">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I11">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J11">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.09323999999999999</v>
+        <v>0.09324</v>
       </c>
       <c r="N11">
         <v>0.27972</v>
       </c>
       <c r="O11">
-        <v>0.0337812745800981</v>
+        <v>0.06574412111659711</v>
       </c>
       <c r="P11">
-        <v>0.0337812745800981</v>
+        <v>0.06574412111659712</v>
       </c>
       <c r="Q11">
-        <v>0.5709189628799999</v>
+        <v>0.5494132190400001</v>
       </c>
       <c r="R11">
-        <v>5.138270665919999</v>
+        <v>4.94471897136</v>
       </c>
       <c r="S11">
-        <v>0.01203582446083442</v>
+        <v>0.02366969583312181</v>
       </c>
       <c r="T11">
-        <v>0.01203582446083442</v>
+        <v>0.02366969583312181</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H12">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I12">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J12">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3734420000000001</v>
+        <v>0.126335</v>
       </c>
       <c r="N12">
-        <v>1.120326</v>
+        <v>0.379005</v>
       </c>
       <c r="O12">
-        <v>0.1352997291049013</v>
+        <v>0.08907961755968785</v>
       </c>
       <c r="P12">
-        <v>0.1352997291049013</v>
+        <v>0.08907961755968785</v>
       </c>
       <c r="Q12">
-        <v>2.286627191504</v>
+        <v>0.7444242709933334</v>
       </c>
       <c r="R12">
-        <v>20.579644723536</v>
+        <v>6.69981843894</v>
       </c>
       <c r="S12">
-        <v>0.04820551649831541</v>
+        <v>0.03207111779362337</v>
       </c>
       <c r="T12">
-        <v>0.04820551649831541</v>
+        <v>0.03207111779362336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.123111999999999</v>
+        <v>5.892462666666667</v>
       </c>
       <c r="H13">
-        <v>18.369336</v>
+        <v>17.677388</v>
       </c>
       <c r="I13">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="J13">
-        <v>0.3562868663317164</v>
+        <v>0.3600275649155554</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>2.293427</v>
+        <v>1.198650666666667</v>
       </c>
       <c r="N13">
-        <v>6.880281</v>
+        <v>3.595952</v>
       </c>
       <c r="O13">
-        <v>0.8309189963150005</v>
+        <v>0.845176261323715</v>
       </c>
       <c r="P13">
-        <v>0.8309189963150007</v>
+        <v>0.8451762613237152</v>
       </c>
       <c r="Q13">
-        <v>14.042910384824</v>
+        <v>7.063004303708444</v>
       </c>
       <c r="R13">
-        <v>126.386193463416</v>
+        <v>63.56703873337599</v>
       </c>
       <c r="S13">
-        <v>0.2960455253725666</v>
+        <v>0.3042867512888103</v>
       </c>
       <c r="T13">
-        <v>0.2960455253725666</v>
+        <v>0.3042867512888103</v>
       </c>
     </row>
   </sheetData>
